--- a/medicine/Mort/Cimetière_ancien_de_Villeurbanne/Cimetière_ancien_de_Villeurbanne.xlsx
+++ b/medicine/Mort/Cimetière_ancien_de_Villeurbanne/Cimetière_ancien_de_Villeurbanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Villeurbanne</t>
+          <t>Cimetière_ancien_de_Villeurbanne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière ancien de Villeurbanne, également connu sous le nom d'ancien cimetière de Cusset, est un cimetière situé à Villeurbanne, en France. Il est le plus ancien des deux cimetières de Villeurbanne. Il est situé entre le canal de Jonage et la rue Léon Blum.
-Il a été conçu par l'architecte Claude Berger, futur maire de la ville[1]. Le cimetière est béni le dimanche 6 décembre 1863 et ouvre le 1er janvier 1864.
+Il a été conçu par l'architecte Claude Berger, futur maire de la ville. Le cimetière est béni le dimanche 6 décembre 1863 et ouvre le 1er janvier 1864.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Villeurbanne</t>
+          <t>Cimetière_ancien_de_Villeurbanne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean-Louis Chorel (1875-1946), sculpteur
 Charles Hernu (1923-1990), député-maire socialiste de Villeurbanne, ministre de la défense sous François Mitterrand, démissionne après l'affaire du Rainbow Warrior.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Villeurbanne</t>
+          <t>Cimetière_ancien_de_Villeurbanne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Description et histoire
